--- a/PerceptronMulticapa/bin/Debug/ejemplo.xlsx
+++ b/PerceptronMulticapa/bin/Debug/ejemplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Macov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generico2-my.sharepoint.com/personal/isai_1319104665_uptecamac_edu_mx/Documents/8voCuatri/Inteligencia Artificial/3/PerceptronMulticapa/PerceptronMulticapa/bin/Debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C445F-F70B-41D9-AE95-33F6D3AA50B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{DF4C445F-F70B-41D9-AE95-33F6D3AA50B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01ABE7F-7241-4802-B2F6-D3ED739B6AE0}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2655" windowWidth="21600" windowHeight="12825" activeTab="1" xr2:uid="{89FE0A81-F67C-4B1D-9864-A1B4CA6D6FFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89FE0A81-F67C-4B1D-9864-A1B4CA6D6FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,18 +72,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -155,25 +140,15 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1396,7 +1371,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81FD-4949-98AE-915A1DABCC13}"/>
+              <c16:uniqueId val="{00000000-3B74-4CFD-A0A3-C9C107338DAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,11 +1383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97008592"/>
-        <c:axId val="97011088"/>
+        <c:axId val="502307743"/>
+        <c:axId val="502310239"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97008592"/>
+        <c:axId val="502307743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,12 +1444,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97011088"/>
+        <c:crossAx val="502310239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97011088"/>
+        <c:axId val="502310239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1506,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97008592"/>
+        <c:crossAx val="502307743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2280,604 +2255,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.961216807086405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.95628369179285599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.95076405340735604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.94461349383175497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.93779486457245498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.93028258382602602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.92206714402494805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.91315907100483895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.90359141950028199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.89341994384750001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.88272044241203396</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.87158338306142802</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.86010657366466203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.84838708857829404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.83651373175009403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.82456102617501603</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.81258523960338602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.80062249541067598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.788688710033709</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.77678097176404304</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.76487998298945803</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.75295326037946397</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.74095887002990501</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.72884953640025396</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.71657699278762399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.70409643411099399</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.69137089051181499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.67837526715667695</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.66509970499752802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.65155183751927903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.63775749491571498</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.62375949266242303</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.60961437335251101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.59538733798189003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.58114602342347199</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.56695411443389199</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.55286587575603097</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.538922483449777</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.52515058196598097</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.51156295863624501</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.49816079746050002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.48493676929511798</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.47187824707808501</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.45897012732843201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.44619698723770101</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.43354452449816999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.42100037123717698</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.40855443970704802</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.39619896439605501</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.38392837840733002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.37173912300451101</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.35962945206682601</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.34759926428822302</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.335649976543479</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.32378444044009602</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.31200689829275202</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.30032297235868799</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.28873968047581999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.277265471163259</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.26591027115825899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.25468553797589</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.24360430928651</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.23268123973531599</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.221932614392644</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.21137632652423599</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.201031806100195</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.19091988481000799</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.18106258379322299</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.17148281234608401</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.16220396999157599</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.153249450791381</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.144642057575426</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.13640334430635101</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.12855291592603499</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.121107725046639</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.114081411740671</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.107483734567922</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.101320136623956</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>9.5591479709346797E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>9.0293963966740998E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>8.5419231988611996E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>8.09546386169233E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>7.6883653514639494E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>7.8603787020829305E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>8.2797713553254507E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>8.9732679720968198E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>9.9954966116301905E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.114279626377163</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.13372084806743201</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.15923474410771701</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.19113372862871</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.228286496664139</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.26786592411231003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.30651280090507799</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.34213631782709902</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.37445358444809901</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.40417275938726499</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.43212604574171798</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.45891928074786398</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.48491131481062599</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.51014816745459901</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.53512963496741395</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.55938759659881399</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.58298466818343897</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.60576884737577896</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.62756160189017096</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.648170817279764</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.66740274262490695</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.68507509410859802</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.70103128270044701</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.71515418175814804</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.72737699894590502</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.73768890804528497</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.74613412973541304</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.75280469286346996</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.75782849051650403</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.76135495777183904</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.763540638161045</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.76453632039131803</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.76447667019511401</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.76347261663652</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.76160628903191296</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.75892804076860798</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.75545499325783905</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.75117053671565404</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.746024298333409</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.73993221545696797</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.73277653357015204</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.72440580859743098</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.71463537558193202</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.70324931816090697</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.69000580714047499</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.67464878313808896</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.65693012275656903</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.63664688060737995</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.61369620255066204</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.58814341892795596</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.56028512321811197</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.53067356906621799</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.50006736004480901</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.46930385007082998</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.43914165262993698</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.41014960176144999</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.38268587237874202</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.356948863755081</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.33304969330193601</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.31106879821290201</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.29108643361455699</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.27319368820860002</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.257494192304902</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.24410398728031901</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.23315350658799799</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.224793058179692</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.21920135295131599</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.21659459525156299</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.21723031892765299</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.22139434550579801</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.22935096109696901</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.241231584239427</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.25685770812316999</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.27557801673517002</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.29633152753637898</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.31810402811271299</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.34047184713544898</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.36358367684401199</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.38762725431042799</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.41254427177509501</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.43813695271654202</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.46415158489691799</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.49029545902140498</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.51625668946497805</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.54171432873505598</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.56635081093770301</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.58986070050863504</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.61195989850209298</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.63239163687543498</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.65093041067414503</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.66738209974584395</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.68158088169131503</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.69338317706587904</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.70265991550802598</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.70928864701341898</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.71314743293308702</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.71411273907901696</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.71206377265230902</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.70689540632801795</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.69854023834351398</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.68699667222123395</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.67235472614992098</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.65480804563199102</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.63464462812351397</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.612220687865067</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.58793201592920497</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.56219425652113697</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.53543265899464498</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.50807647498569997</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.48055443622074301</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.453289743779694</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.426694229238544</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.74542037428180596</c:v>
+                  <c:v>0.40116198286905802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,7 +2860,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA3C-4590-BF24-6139886279B2}"/>
+              <c16:uniqueId val="{00000000-5D62-4F83-81F8-42185D8052DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2897,11 +2872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="766667504"/>
-        <c:axId val="766672912"/>
+        <c:axId val="502306079"/>
+        <c:axId val="502303999"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="766667504"/>
+        <c:axId val="502306079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,12 +2933,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766672912"/>
+        <c:crossAx val="502303999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="766672912"/>
+        <c:axId val="502303999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +2995,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766667504"/>
+        <c:crossAx val="502306079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4193,22 +4168,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>659781</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>74341</xdr:rowOff>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>55756</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D979659-D874-4DC2-9AF5-6668BDCC6A75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2610D96-8530-499F-A9DB-EB9FC5C56951}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4234,22 +4209,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:colOff>721702</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>721702</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118696</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42CD1DA-CB22-4BC3-82DE-F198CD281EE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29682A0-355D-4670-B03C-3CAE299511C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4569,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D1B2B1-5DCD-4EF1-AE23-4FC544DF03C7}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B200"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6390,8 +6365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66364CB2-C658-40C0-9654-C31A55C39074}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B200"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B200" sqref="A1:B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6401,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.74542037428180596</v>
+        <v>0.961216807086405</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6409,7 +6384,7 @@
         <v>0.98765432098765404</v>
       </c>
       <c r="B2">
-        <v>0.74542037428180596</v>
+        <v>0.95628369179285599</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6417,7 +6392,7 @@
         <v>0.97530864197530798</v>
       </c>
       <c r="B3">
-        <v>0.74542037428180596</v>
+        <v>0.95076405340735604</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6425,7 +6400,7 @@
         <v>0.96296296296296302</v>
       </c>
       <c r="B4">
-        <v>0.74542037428180596</v>
+        <v>0.94461349383175497</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6433,7 +6408,7 @@
         <v>0.95061728395061695</v>
       </c>
       <c r="B5">
-        <v>0.74542037428180596</v>
+        <v>0.93779486457245498</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6441,7 +6416,7 @@
         <v>0.938271604938271</v>
       </c>
       <c r="B6">
-        <v>0.74542037428180596</v>
+        <v>0.93028258382602602</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6449,7 +6424,7 @@
         <v>0.92592592592592604</v>
       </c>
       <c r="B7">
-        <v>0.74542037428180596</v>
+        <v>0.92206714402494805</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6457,7 +6432,7 @@
         <v>0.91358024691357997</v>
       </c>
       <c r="B8">
-        <v>0.74542037428180596</v>
+        <v>0.91315907100483895</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6465,7 +6440,7 @@
         <v>0.90123456790123402</v>
       </c>
       <c r="B9">
-        <v>0.74542037428180596</v>
+        <v>0.90359141950028199</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6473,7 +6448,7 @@
         <v>0.88888888888888895</v>
       </c>
       <c r="B10">
-        <v>0.74542037428180596</v>
+        <v>0.89341994384750001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6481,7 +6456,7 @@
         <v>0.87654320987654299</v>
       </c>
       <c r="B11">
-        <v>0.74542037428180596</v>
+        <v>0.88272044241203396</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6489,7 +6464,7 @@
         <v>0.86419753086419704</v>
       </c>
       <c r="B12">
-        <v>0.74542037428180596</v>
+        <v>0.87158338306142802</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6497,7 +6472,7 @@
         <v>0.85185185185185197</v>
       </c>
       <c r="B13">
-        <v>0.74542037428180596</v>
+        <v>0.86010657366466203</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6505,7 +6480,7 @@
         <v>0.83950617283950602</v>
       </c>
       <c r="B14">
-        <v>0.74542037428180596</v>
+        <v>0.84838708857829404</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6513,7 +6488,7 @@
         <v>0.82716049382715995</v>
       </c>
       <c r="B15">
-        <v>0.74542037428180596</v>
+        <v>0.83651373175009403</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6521,7 +6496,7 @@
         <v>0.81481481481481499</v>
       </c>
       <c r="B16">
-        <v>0.74542037428180596</v>
+        <v>0.82456102617501603</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -6529,7 +6504,7 @@
         <v>0.80246913580246904</v>
       </c>
       <c r="B17">
-        <v>0.74542037428180596</v>
+        <v>0.81258523960338602</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6537,7 +6512,7 @@
         <v>0.79012345679012297</v>
       </c>
       <c r="B18">
-        <v>0.74542037428180596</v>
+        <v>0.80062249541067598</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -6545,7 +6520,7 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="B19">
-        <v>0.74542037428180596</v>
+        <v>0.788688710033709</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -6553,7 +6528,7 @@
         <v>0.76543209876543195</v>
       </c>
       <c r="B20">
-        <v>0.74542037428180596</v>
+        <v>0.77678097176404304</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -6561,7 +6536,7 @@
         <v>0.75308641975308599</v>
       </c>
       <c r="B21">
-        <v>0.74542037428180596</v>
+        <v>0.76487998298945803</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6569,7 +6544,7 @@
         <v>0.74074074074074103</v>
       </c>
       <c r="B22">
-        <v>0.74542037428180596</v>
+        <v>0.75295326037946397</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6577,7 +6552,7 @@
         <v>0.72839506172839497</v>
       </c>
       <c r="B23">
-        <v>0.74542037428180596</v>
+        <v>0.74095887002990501</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6585,7 +6560,7 @@
         <v>0.71604938271604901</v>
       </c>
       <c r="B24">
-        <v>0.74542037428180596</v>
+        <v>0.72884953640025396</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -6593,7 +6568,7 @@
         <v>0.70370370370370405</v>
       </c>
       <c r="B25">
-        <v>0.74542037428180596</v>
+        <v>0.71657699278762399</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -6601,7 +6576,7 @@
         <v>0.69135802469135799</v>
       </c>
       <c r="B26">
-        <v>0.74542037428180596</v>
+        <v>0.70409643411099399</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -6609,7 +6584,7 @@
         <v>0.67901234567901203</v>
       </c>
       <c r="B27">
-        <v>0.74542037428180596</v>
+        <v>0.69137089051181499</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -6617,7 +6592,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B28">
-        <v>0.74542037428180596</v>
+        <v>0.67837526715667695</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -6625,7 +6600,7 @@
         <v>0.65432098765432101</v>
       </c>
       <c r="B29">
-        <v>0.74542037428180596</v>
+        <v>0.66509970499752802</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -6633,7 +6608,7 @@
         <v>0.64197530864197505</v>
       </c>
       <c r="B30">
-        <v>0.74542037428180596</v>
+        <v>0.65155183751927903</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6641,7 +6616,7 @@
         <v>0.62962962962962998</v>
       </c>
       <c r="B31">
-        <v>0.74542037428180596</v>
+        <v>0.63775749491571498</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -6649,7 +6624,7 @@
         <v>0.61728395061728403</v>
       </c>
       <c r="B32">
-        <v>0.74542037428180596</v>
+        <v>0.62375949266242303</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6657,7 +6632,7 @@
         <v>0.60493827160493796</v>
       </c>
       <c r="B33">
-        <v>0.74542037428180596</v>
+        <v>0.60961437335251101</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6665,7 +6640,7 @@
         <v>0.592592592592592</v>
       </c>
       <c r="B34">
-        <v>0.74542037428180596</v>
+        <v>0.59538733798189003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6673,7 +6648,7 @@
         <v>0.58024691358024705</v>
       </c>
       <c r="B35">
-        <v>0.74542037428180596</v>
+        <v>0.58114602342347199</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6681,7 +6656,7 @@
         <v>0.56790123456790098</v>
       </c>
       <c r="B36">
-        <v>0.74542037428180596</v>
+        <v>0.56695411443389199</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -6689,7 +6664,7 @@
         <v>0.55555555555555503</v>
       </c>
       <c r="B37">
-        <v>0.74542037428180596</v>
+        <v>0.55286587575603097</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -6697,7 +6672,7 @@
         <v>0.54320987654320996</v>
       </c>
       <c r="B38">
-        <v>0.74542037428180596</v>
+        <v>0.538922483449777</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -6705,7 +6680,7 @@
         <v>0.530864197530864</v>
       </c>
       <c r="B39">
-        <v>0.74542037428180596</v>
+        <v>0.52515058196598097</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -6713,7 +6688,7 @@
         <v>0.51851851851851805</v>
       </c>
       <c r="B40">
-        <v>0.74542037428180596</v>
+        <v>0.51156295863624501</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -6721,7 +6696,7 @@
         <v>0.50617283950617298</v>
       </c>
       <c r="B41">
-        <v>0.74542037428180596</v>
+        <v>0.49816079746050002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -6729,7 +6704,7 @@
         <v>0.49382716049382702</v>
       </c>
       <c r="B42">
-        <v>0.74542037428180596</v>
+        <v>0.48493676929511798</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -6737,7 +6712,7 @@
         <v>0.48148148148148101</v>
       </c>
       <c r="B43">
-        <v>0.74542037428180596</v>
+        <v>0.47187824707808501</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -6745,7 +6720,7 @@
         <v>0.469135802469136</v>
       </c>
       <c r="B44">
-        <v>0.74542037428180596</v>
+        <v>0.45897012732843201</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -6753,7 +6728,7 @@
         <v>0.45679012345678999</v>
       </c>
       <c r="B45">
-        <v>0.74542037428180596</v>
+        <v>0.44619698723770101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -6761,7 +6736,7 @@
         <v>0.44444444444444398</v>
       </c>
       <c r="B46">
-        <v>0.74542037428180596</v>
+        <v>0.43354452449816999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -6769,7 +6744,7 @@
         <v>0.43209876543209902</v>
       </c>
       <c r="B47">
-        <v>0.74542037428180596</v>
+        <v>0.42100037123717698</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -6777,7 +6752,7 @@
         <v>0.41975308641975301</v>
       </c>
       <c r="B48">
-        <v>0.74542037428180596</v>
+        <v>0.40855443970704802</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -6785,7 +6760,7 @@
         <v>0.407407407407407</v>
       </c>
       <c r="B49">
-        <v>0.74542037428180596</v>
+        <v>0.39619896439605501</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -6793,7 +6768,7 @@
         <v>0.39506172839506198</v>
       </c>
       <c r="B50">
-        <v>0.74542037428180596</v>
+        <v>0.38392837840733002</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6801,7 +6776,7 @@
         <v>0.38271604938271597</v>
       </c>
       <c r="B51">
-        <v>0.74542037428180596</v>
+        <v>0.37173912300451101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -6809,7 +6784,7 @@
         <v>0.37037037037037002</v>
       </c>
       <c r="B52">
-        <v>0.74542037428180596</v>
+        <v>0.35962945206682601</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -6817,7 +6792,7 @@
         <v>0.358024691358025</v>
       </c>
       <c r="B53">
-        <v>0.74542037428180596</v>
+        <v>0.34759926428822302</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -6825,7 +6800,7 @@
         <v>0.34567901234567899</v>
       </c>
       <c r="B54">
-        <v>0.74542037428180596</v>
+        <v>0.335649976543479</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -6833,7 +6808,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B55">
-        <v>0.74542037428180596</v>
+        <v>0.32378444044009602</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -6841,7 +6816,7 @@
         <v>0.32098765432098803</v>
       </c>
       <c r="B56">
-        <v>0.74542037428180596</v>
+        <v>0.31200689829275202</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -6849,7 +6824,7 @@
         <v>0.30864197530864201</v>
       </c>
       <c r="B57">
-        <v>0.74542037428180596</v>
+        <v>0.30032297235868799</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -6857,7 +6832,7 @@
         <v>0.296296296296296</v>
       </c>
       <c r="B58">
-        <v>0.74542037428180596</v>
+        <v>0.28873968047581999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -6865,7 +6840,7 @@
         <v>0.28395061728395099</v>
       </c>
       <c r="B59">
-        <v>0.74542037428180596</v>
+        <v>0.277265471163259</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -6873,7 +6848,7 @@
         <v>0.27160493827160498</v>
       </c>
       <c r="B60">
-        <v>0.74542037428180596</v>
+        <v>0.26591027115825899</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -6881,7 +6856,7 @@
         <v>0.25925925925925902</v>
       </c>
       <c r="B61">
-        <v>0.74542037428180596</v>
+        <v>0.25468553797589</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -6889,7 +6864,7 @@
         <v>0.24691358024691401</v>
       </c>
       <c r="B62">
-        <v>0.74542037428180596</v>
+        <v>0.24360430928651</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -6897,7 +6872,7 @@
         <v>0.234567901234568</v>
       </c>
       <c r="B63">
-        <v>0.74542037428180596</v>
+        <v>0.23268123973531599</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -6905,7 +6880,7 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="B64">
-        <v>0.74542037428180596</v>
+        <v>0.221932614392644</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -6913,7 +6888,7 @@
         <v>0.209876543209877</v>
       </c>
       <c r="B65">
-        <v>0.74542037428180596</v>
+        <v>0.21137632652423599</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -6921,7 +6896,7 @@
         <v>0.19753086419753099</v>
       </c>
       <c r="B66">
-        <v>0.74542037428180596</v>
+        <v>0.201031806100195</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -6929,7 +6904,7 @@
         <v>0.18518518518518501</v>
       </c>
       <c r="B67">
-        <v>0.74542037428180596</v>
+        <v>0.19091988481000799</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -6937,7 +6912,7 @@
         <v>0.172839506172839</v>
       </c>
       <c r="B68">
-        <v>0.74542037428180596</v>
+        <v>0.18106258379322299</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -6945,7 +6920,7 @@
         <v>0.16049382716049401</v>
       </c>
       <c r="B69">
-        <v>0.74542037428180596</v>
+        <v>0.17148281234608401</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -6953,7 +6928,7 @@
         <v>0.148148148148148</v>
       </c>
       <c r="B70">
-        <v>0.74542037428180596</v>
+        <v>0.16220396999157599</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -6961,7 +6936,7 @@
         <v>0.13580246913580199</v>
       </c>
       <c r="B71">
-        <v>0.74542037428180596</v>
+        <v>0.153249450791381</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -6969,7 +6944,7 @@
         <v>0.12345679012345701</v>
       </c>
       <c r="B72">
-        <v>0.74542037428180596</v>
+        <v>0.144642057575426</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -6977,7 +6952,7 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="B73">
-        <v>0.74542037428180596</v>
+        <v>0.13640334430635101</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -6985,7 +6960,7 @@
         <v>9.8765432098765399E-2</v>
       </c>
       <c r="B74">
-        <v>0.74542037428180596</v>
+        <v>0.12855291592603499</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -6993,7 +6968,7 @@
         <v>8.6419753086419707E-2</v>
       </c>
       <c r="B75">
-        <v>0.74542037428180596</v>
+        <v>0.121107725046639</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -7001,7 +6976,7 @@
         <v>7.4074074074074001E-2</v>
       </c>
       <c r="B76">
-        <v>0.74542037428180596</v>
+        <v>0.114081411740671</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -7009,7 +6984,7 @@
         <v>6.1728395061728301E-2</v>
       </c>
       <c r="B77">
-        <v>0.74542037428180596</v>
+        <v>0.107483734567922</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -7017,7 +6992,7 @@
         <v>4.9382716049382699E-2</v>
       </c>
       <c r="B78">
-        <v>0.74542037428180596</v>
+        <v>0.101320136623956</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -7025,7 +7000,7 @@
         <v>3.7037037037037E-2</v>
       </c>
       <c r="B79">
-        <v>0.74542037428180596</v>
+        <v>9.5591479709346797E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -7033,7 +7008,7 @@
         <v>2.4691358024691301E-2</v>
       </c>
       <c r="B80">
-        <v>0.74542037428180596</v>
+        <v>9.0293963966740998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -7041,7 +7016,7 @@
         <v>1.23456790123456E-2</v>
       </c>
       <c r="B81">
-        <v>0.74542037428180596</v>
+        <v>8.5419231988611996E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -7049,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>0.74542037428180596</v>
+        <v>8.09546386169233E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -7057,7 +7032,7 @@
         <v>6.0305196932217302E-2</v>
       </c>
       <c r="B83">
-        <v>0.74542037428180596</v>
+        <v>7.6883653514639494E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -7065,7 +7040,7 @@
         <v>8.4284955892153193E-2</v>
       </c>
       <c r="B84">
-        <v>0.74542037428180596</v>
+        <v>7.8603787020829305E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -7073,7 +7048,7 @@
         <v>0.10826471485208899</v>
       </c>
       <c r="B85">
-        <v>0.74542037428180596</v>
+        <v>8.2797713553254507E-2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -7081,7 +7056,7 @@
         <v>0.132244473812025</v>
       </c>
       <c r="B86">
-        <v>0.74542037428180596</v>
+        <v>8.9732679720968198E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -7089,7 +7064,7 @@
         <v>0.15622423277196101</v>
       </c>
       <c r="B87">
-        <v>0.74542037428180596</v>
+        <v>9.9954966116301905E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -7097,7 +7072,7 @@
         <v>0.180203991731897</v>
       </c>
       <c r="B88">
-        <v>0.74542037428180596</v>
+        <v>0.114279626377163</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -7105,7 +7080,7 @@
         <v>0.20418375069183201</v>
       </c>
       <c r="B89">
-        <v>0.74542037428180596</v>
+        <v>0.13372084806743201</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -7113,7 +7088,7 @@
         <v>0.22816350965176799</v>
       </c>
       <c r="B90">
-        <v>0.74542037428180596</v>
+        <v>0.15923474410771701</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -7121,7 +7096,7 @@
         <v>0.252143268611704</v>
       </c>
       <c r="B91">
-        <v>0.74542037428180596</v>
+        <v>0.19113372862871</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7129,7 +7104,7 @@
         <v>0.27612302757163998</v>
       </c>
       <c r="B92">
-        <v>0.74542037428180596</v>
+        <v>0.228286496664139</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7137,7 +7112,7 @@
         <v>0.30010278653157602</v>
       </c>
       <c r="B93">
-        <v>0.74542037428180596</v>
+        <v>0.26786592411231003</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -7145,7 +7120,7 @@
         <v>0.324082545491512</v>
       </c>
       <c r="B94">
-        <v>0.74542037428180596</v>
+        <v>0.30651280090507799</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -7153,7 +7128,7 @@
         <v>0.34806230445144698</v>
       </c>
       <c r="B95">
-        <v>0.74542037428180596</v>
+        <v>0.34213631782709902</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -7161,7 +7136,7 @@
         <v>0.37204206341138302</v>
       </c>
       <c r="B96">
-        <v>0.74542037428180596</v>
+        <v>0.37445358444809901</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -7169,7 +7144,7 @@
         <v>0.396021822371319</v>
       </c>
       <c r="B97">
-        <v>0.74542037428180596</v>
+        <v>0.40417275938726499</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7177,7 +7152,7 @@
         <v>0.42000158133125498</v>
       </c>
       <c r="B98">
-        <v>0.74542037428180596</v>
+        <v>0.43212604574171798</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7185,7 +7160,7 @@
         <v>0.44398134029119102</v>
       </c>
       <c r="B99">
-        <v>0.74542037428180596</v>
+        <v>0.45891928074786398</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -7193,7 +7168,7 @@
         <v>0.467961099251127</v>
       </c>
       <c r="B100">
-        <v>0.74542037428180596</v>
+        <v>0.48491131481062599</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -7201,7 +7176,7 @@
         <v>0.49184288604249299</v>
       </c>
       <c r="B101">
-        <v>0.74542037428180596</v>
+        <v>0.51014816745459901</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -7209,7 +7184,7 @@
         <v>0.51588193368574398</v>
       </c>
       <c r="B102">
-        <v>0.74542037428180596</v>
+        <v>0.53512963496741395</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -7217,7 +7192,7 @@
         <v>0.53966798103531999</v>
       </c>
       <c r="B103">
-        <v>0.74542037428180596</v>
+        <v>0.55938759659881399</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -7225,7 +7200,7 @@
         <v>0.56317546457253198</v>
       </c>
       <c r="B104">
-        <v>0.74542037428180596</v>
+        <v>0.58298466818343897</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -7233,7 +7208,7 @@
         <v>0.58627843346548703</v>
       </c>
       <c r="B105">
-        <v>0.74542037428180596</v>
+        <v>0.60576884737577896</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7216,7 @@
         <v>0.608849228931585</v>
       </c>
       <c r="B106">
-        <v>0.74542037428180596</v>
+        <v>0.62756160189017096</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -7249,7 +7224,7 @@
         <v>0.63075924508375403</v>
       </c>
       <c r="B107">
-        <v>0.74542037428180596</v>
+        <v>0.648170817279764</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -7257,7 +7232,7 @@
         <v>0.651879738910915</v>
       </c>
       <c r="B108">
-        <v>0.74542037428180596</v>
+        <v>0.66740274262490695</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -7265,7 +7240,7 @@
         <v>0.67208268758542</v>
       </c>
       <c r="B109">
-        <v>0.74542037428180596</v>
+        <v>0.68507509410859802</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -7273,7 +7248,7 @@
         <v>0.69124168722397294</v>
       </c>
       <c r="B110">
-        <v>0.74542037428180596</v>
+        <v>0.70103128270044701</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -7281,7 +7256,7 @@
         <v>0.70923289027820102</v>
       </c>
       <c r="B111">
-        <v>0.74542037428180596</v>
+        <v>0.71515418175814804</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -7289,7 +7264,7 @@
         <v>0.72593597421300504</v>
       </c>
       <c r="B112">
-        <v>0.74542037428180596</v>
+        <v>0.72737699894590502</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -7297,7 +7272,7 @@
         <v>0.74123513616391601</v>
       </c>
       <c r="B113">
-        <v>0.74542037428180596</v>
+        <v>0.73768890804528497</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -7305,7 +7280,7 @@
         <v>0.75502010662690699</v>
       </c>
       <c r="B114">
-        <v>0.74542037428180596</v>
+        <v>0.74613412973541304</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7288,7 @@
         <v>0.76718717393514302</v>
       </c>
       <c r="B115">
-        <v>0.74542037428180596</v>
+        <v>0.75280469286346996</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -7321,7 +7296,7 @@
         <v>0.77764021184191201</v>
       </c>
       <c r="B116">
-        <v>0.74542037428180596</v>
+        <v>0.75782849051650403</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -7329,7 +7304,7 @@
         <v>0.78629170128652603</v>
       </c>
       <c r="B117">
-        <v>0.74542037428180596</v>
+        <v>0.76135495777183904</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -7337,7 +7312,7 @@
         <v>0.79306373612099401</v>
       </c>
       <c r="B118">
-        <v>0.74542037428180596</v>
+        <v>0.763540638161045</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -7345,7 +7320,7 @@
         <v>0.79788900336597601</v>
       </c>
       <c r="B119">
-        <v>0.74542037428180596</v>
+        <v>0.76453632039131803</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -7353,7 +7328,7 @@
         <v>0.80071172766087195</v>
       </c>
       <c r="B120">
-        <v>0.74542037428180596</v>
+        <v>0.76447667019511401</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -7361,7 +7336,7 @@
         <v>0.80148856816102498</v>
       </c>
       <c r="B121">
-        <v>0.74542037428180596</v>
+        <v>0.76347261663652</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -7369,7 +7344,7 @@
         <v>0.80018945743395098</v>
       </c>
       <c r="B122">
-        <v>0.74542037428180596</v>
+        <v>0.76160628903191296</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -7377,7 +7352,7 @@
         <v>0.79679837066404602</v>
       </c>
       <c r="B123">
-        <v>0.74542037428180596</v>
+        <v>0.75892804076860798</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -7385,7 +7360,7 @@
         <v>0.79131401370110599</v>
       </c>
       <c r="B124">
-        <v>0.74542037428180596</v>
+        <v>0.75545499325783905</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -7393,7 +7368,7 @@
         <v>0.783750418262117</v>
       </c>
       <c r="B125">
-        <v>0.74542037428180596</v>
+        <v>0.75117053671565404</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -7401,7 +7376,7 @@
         <v>0.77413743321699202</v>
       </c>
       <c r="B126">
-        <v>0.74542037428180596</v>
+        <v>0.746024298333409</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -7409,7 +7384,7 @@
         <v>0.76252110088893399</v>
       </c>
       <c r="B127">
-        <v>0.74542037428180596</v>
+        <v>0.73993221545696797</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -7417,7 +7392,7 @@
         <v>0.74896390758248299</v>
       </c>
       <c r="B128">
-        <v>0.74542037428180596</v>
+        <v>0.73277653357015204</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -7425,7 +7400,7 @@
         <v>0.73354489862537098</v>
       </c>
       <c r="B129">
-        <v>0.74542037428180596</v>
+        <v>0.72440580859743098</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -7433,7 +7408,7 @@
         <v>0.71635964821027198</v>
       </c>
       <c r="B130">
-        <v>0.74542037428180596</v>
+        <v>0.71463537558193202</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -7441,7 +7416,7 @@
         <v>0.69752007641218505</v>
       </c>
       <c r="B131">
-        <v>0.74542037428180596</v>
+        <v>0.70324931816090697</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -7449,7 +7424,7 @@
         <v>0.677154105418319</v>
       </c>
       <c r="B132">
-        <v>0.74542037428180596</v>
+        <v>0.69000580714047499</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -7457,7 +7432,7 @@
         <v>0.65540514954875595</v>
       </c>
       <c r="B133">
-        <v>0.74542037428180596</v>
+        <v>0.67464878313808896</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -7465,7 +7440,7 @@
         <v>0.63243143421097203</v>
       </c>
       <c r="B134">
-        <v>0.74542037428180596</v>
+        <v>0.65693012275656903</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -7473,7 +7448,7 @@
         <v>0.60840514085143405</v>
       </c>
       <c r="B135">
-        <v>0.74542037428180596</v>
+        <v>0.63664688060737995</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -7481,7 +7456,7 @@
         <v>0.58351137694418997</v>
       </c>
       <c r="B136">
-        <v>0.74542037428180596</v>
+        <v>0.61369620255066204</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -7489,7 +7464,7 @@
         <v>0.55794697118588499</v>
       </c>
       <c r="B137">
-        <v>0.74542037428180596</v>
+        <v>0.58814341892795596</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -7497,7 +7472,7 @@
         <v>0.531919096833949</v>
       </c>
       <c r="B138">
-        <v>0.74542037428180596</v>
+        <v>0.56028512321811197</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -7505,7 +7480,7 @@
         <v>0.50564372849671901</v>
       </c>
       <c r="B139">
-        <v>0.74542037428180596</v>
+        <v>0.53067356906621799</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -7513,7 +7488,7 @@
         <v>0.47934393830548999</v>
       </c>
       <c r="B140">
-        <v>0.74542037428180596</v>
+        <v>0.50006736004480901</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -7521,7 +7496,7 @@
         <v>0.45324804191657297</v>
       </c>
       <c r="B141">
-        <v>0.74542037428180596</v>
+        <v>0.46930385007082998</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -7529,7 +7504,7 @@
         <v>0.427587605356195</v>
       </c>
       <c r="B142">
-        <v>0.74542037428180596</v>
+        <v>0.43914165262993698</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -7537,7 +7512,7 @@
         <v>0.40259532733557002</v>
       </c>
       <c r="B143">
-        <v>0.74542037428180596</v>
+        <v>0.41014960176144999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -7545,7 +7520,7 @@
         <v>0.37850281324477902</v>
       </c>
       <c r="B144">
-        <v>0.74542037428180596</v>
+        <v>0.38268587237874202</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -7553,7 +7528,7 @@
         <v>0.35553825974495401</v>
       </c>
       <c r="B145">
-        <v>0.74542037428180596</v>
+        <v>0.356948863755081</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -7561,7 +7536,7 @@
         <v>0.33392407136322</v>
       </c>
       <c r="B146">
-        <v>0.74542037428180596</v>
+        <v>0.33304969330193601</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -7569,7 +7544,7 @@
         <v>0.31387443218912697</v>
       </c>
       <c r="B147">
-        <v>0.74542037428180596</v>
+        <v>0.31106879821290201</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -7577,7 +7552,7 @@
         <v>0.29559285808681501</v>
       </c>
       <c r="B148">
-        <v>0.74542037428180596</v>
+        <v>0.29108643361455699</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -7585,7 +7560,7 @@
         <v>0.279269756983272</v>
       </c>
       <c r="B149">
-        <v>0.74542037428180596</v>
+        <v>0.27319368820860002</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -7593,7 +7568,7 @@
         <v>0.26508002564015698</v>
       </c>
       <c r="B150">
-        <v>0.74542037428180596</v>
+        <v>0.257494192304902</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -7601,7 +7576,7 @@
         <v>0.25318071346277699</v>
       </c>
       <c r="B151">
-        <v>0.74542037428180596</v>
+        <v>0.24410398728031901</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -7609,7 +7584,7 @@
         <v>0.24370878435159801</v>
       </c>
       <c r="B152">
-        <v>0.74542037428180596</v>
+        <v>0.23315350658799799</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -7617,7 +7592,7 @@
         <v>0.236779008900636</v>
       </c>
       <c r="B153">
-        <v>0.74542037428180596</v>
+        <v>0.224793058179692</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -7625,7 +7600,7 @@
         <v>0.232482019077632</v>
       </c>
       <c r="B154">
-        <v>0.74542037428180596</v>
+        <v>0.21920135295131599</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -7633,7 +7608,7 @@
         <v>0.23088255723854401</v>
       </c>
       <c r="B155">
-        <v>0.74542037428180596</v>
+        <v>0.21659459525156299</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -7641,7 +7616,7 @@
         <v>0.232017951837168</v>
       </c>
       <c r="B156">
-        <v>0.74542037428180596</v>
+        <v>0.21723031892765299</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -7649,7 +7624,7 @@
         <v>0.235896849705759</v>
       </c>
       <c r="B157">
-        <v>0.74542037428180596</v>
+        <v>0.22139434550579801</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -7657,7 +7632,7 @@
         <v>0.24249823455660599</v>
       </c>
       <c r="B158">
-        <v>0.74542037428180596</v>
+        <v>0.22935096109696901</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -7665,7 +7640,7 @@
         <v>0.25177075836128898</v>
       </c>
       <c r="B159">
-        <v>0.74542037428180596</v>
+        <v>0.241231584239427</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -7673,7 +7648,7 @@
         <v>0.26363241045711799</v>
       </c>
       <c r="B160">
-        <v>0.74542037428180596</v>
+        <v>0.25685770812316999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -7681,7 +7656,7 @@
         <v>0.27797054510747399</v>
       </c>
       <c r="B161">
-        <v>0.74542037428180596</v>
+        <v>0.27557801673517002</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -7689,7 +7664,7 @@
         <v>0.29464228660499497</v>
       </c>
       <c r="B162">
-        <v>0.74542037428180596</v>
+        <v>0.29633152753637898</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -7697,7 +7672,7 @@
         <v>0.31347532411643098</v>
       </c>
       <c r="B163">
-        <v>0.74542037428180596</v>
+        <v>0.31810402811271299</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -7705,7 +7680,7 @@
         <v>0.33426910620898398</v>
       </c>
       <c r="B164">
-        <v>0.74542037428180596</v>
+        <v>0.34047184713544898</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -7713,7 +7688,7 @@
         <v>0.35679643935029898</v>
       </c>
       <c r="B165">
-        <v>0.74542037428180596</v>
+        <v>0.36358367684401199</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -7721,7 +7696,7 @@
         <v>0.38080548817954901</v>
       </c>
       <c r="B166">
-        <v>0.74542037428180596</v>
+        <v>0.38762725431042799</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -7729,7 +7704,7 @@
         <v>0.40602217145019398</v>
       </c>
       <c r="B167">
-        <v>0.74542037428180596</v>
+        <v>0.41254427177509501</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -7737,7 +7712,7 @@
         <v>0.43215293980775499</v>
       </c>
       <c r="B168">
-        <v>0.74542037428180596</v>
+        <v>0.43813695271654202</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -7745,7 +7720,7 @@
         <v>0.45888791608778601</v>
       </c>
       <c r="B169">
-        <v>0.74542037428180596</v>
+        <v>0.46415158489691799</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -7753,7 +7728,7 @@
         <v>0.485904372663301</v>
       </c>
       <c r="B170">
-        <v>0.74542037428180596</v>
+        <v>0.49029545902140498</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -7761,7 +7736,7 @@
         <v>0.51287051365027703</v>
       </c>
       <c r="B171">
-        <v>0.74542037428180596</v>
+        <v>0.51625668946497805</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -7769,7 +7744,7 @@
         <v>0.53944952317215</v>
       </c>
       <c r="B172">
-        <v>0.74542037428180596</v>
+        <v>0.54171432873505598</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -7777,7 +7752,7 @@
         <v>0.56530383546248297</v>
       </c>
       <c r="B173">
-        <v>0.74542037428180596</v>
+        <v>0.56635081093770301</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -7785,7 +7760,7 @@
         <v>0.59009957614674702</v>
       </c>
       <c r="B174">
-        <v>0.74542037428180596</v>
+        <v>0.58986070050863504</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -7793,7 +7768,7 @@
         <v>0.61351111935662395</v>
       </c>
       <c r="B175">
-        <v>0.74542037428180596</v>
+        <v>0.61195989850209298</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -7801,7 +7776,7 @@
         <v>0.63522569894841496</v>
       </c>
       <c r="B176">
-        <v>0.74542037428180596</v>
+        <v>0.63239163687543498</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -7809,7 +7784,7 @@
         <v>0.65494801040290096</v>
       </c>
       <c r="B177">
-        <v>0.74542037428180596</v>
+        <v>0.65093041067414503</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -7817,7 +7792,7 @@
         <v>0.672404733715112</v>
       </c>
       <c r="B178">
-        <v>0.74542037428180596</v>
+        <v>0.66738209974584395</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -7825,7 +7800,7 @@
         <v>0.68734890696124595</v>
       </c>
       <c r="B179">
-        <v>0.74542037428180596</v>
+        <v>0.68158088169131503</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -7833,7 +7808,7 @@
         <v>0.69956407830978296</v>
       </c>
       <c r="B180">
-        <v>0.74542037428180596</v>
+        <v>0.69338317706587904</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -7841,7 +7816,7 @@
         <v>0.70886816305784295</v>
       </c>
       <c r="B181">
-        <v>0.74542037428180596</v>
+        <v>0.70265991550802598</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -7849,7 +7824,7 @@
         <v>0.71511693379869601</v>
       </c>
       <c r="B182">
-        <v>0.74542037428180596</v>
+        <v>0.70928864701341898</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -7857,7 +7832,7 @@
         <v>0.71820707323822697</v>
       </c>
       <c r="B183">
-        <v>0.74542037428180596</v>
+        <v>0.71314743293308702</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -7865,7 +7840,7 @@
         <v>0.71807872341386803</v>
       </c>
       <c r="B184">
-        <v>0.74542037428180596</v>
+        <v>0.71411273907901696</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -7873,7 +7848,7 @@
         <v>0.71471746761094701</v>
       </c>
       <c r="B185">
-        <v>0.74542037428180596</v>
+        <v>0.71206377265230902</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -7881,7 +7856,7 @@
         <v>0.70815569013814095</v>
       </c>
       <c r="B186">
-        <v>0.74542037428180596</v>
+        <v>0.70689540632801795</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -7889,7 +7864,7 @@
         <v>0.69847326341590099</v>
       </c>
       <c r="B187">
-        <v>0.74542037428180596</v>
+        <v>0.69854023834351398</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -7897,7 +7872,7 @@
         <v>0.68579752290106499</v>
       </c>
       <c r="B188">
-        <v>0.74542037428180596</v>
+        <v>0.68699667222123395</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -7905,7 +7880,7 @@
         <v>0.67030249872928704</v>
       </c>
       <c r="B189">
-        <v>0.74542037428180596</v>
+        <v>0.67235472614992098</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -7913,7 +7888,7 @@
         <v>0.65220738374391496</v>
       </c>
       <c r="B190">
-        <v>0.74542037428180596</v>
+        <v>0.65480804563199102</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -7921,7 +7896,7 @@
         <v>0.63177423113415299</v>
       </c>
       <c r="B191">
-        <v>0.74542037428180596</v>
+        <v>0.63464462812351397</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -7929,7 +7904,7 @@
         <v>0.60930488569234098</v>
       </c>
       <c r="B192">
-        <v>0.74542037428180596</v>
+        <v>0.612220687865067</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -7937,7 +7912,7 @@
         <v>0.58513716783572201</v>
       </c>
       <c r="B193">
-        <v>0.74542037428180596</v>
+        <v>0.58793201592920497</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -7945,7 +7920,7 @@
         <v>0.55964034224526404</v>
       </c>
       <c r="B194">
-        <v>0.74542037428180596</v>
+        <v>0.56219425652113697</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,7 +7928,7 @@
         <v>0.53320991810963103</v>
       </c>
       <c r="B195">
-        <v>0.74542037428180596</v>
+        <v>0.53543265899464498</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +7936,7 @@
         <v>0.50626184179910305</v>
       </c>
       <c r="B196">
-        <v>0.74542037428180596</v>
+        <v>0.50807647498569997</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -7969,7 +7944,7 @@
         <v>0.47922615646143202</v>
       </c>
       <c r="B197">
-        <v>0.74542037428180596</v>
+        <v>0.48055443622074301</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -7977,7 +7952,7 @@
         <v>0.45254021636000102</v>
       </c>
       <c r="B198">
-        <v>0.74542037428180596</v>
+        <v>0.453289743779694</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -7985,7 +7960,7 @@
         <v>0.42664155727242897</v>
       </c>
       <c r="B199">
-        <v>0.74542037428180596</v>
+        <v>0.426694229238544</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -7993,7 +7968,7 @@
         <v>0.40196053358634598</v>
       </c>
       <c r="B200">
-        <v>0.74542037428180596</v>
+        <v>0.40116198286905802</v>
       </c>
     </row>
   </sheetData>
